--- a/for 반복문 풀이_1.xlsx
+++ b/for 반복문 풀이_1.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +43,101 @@
   <si>
     <t>변수 : num , num1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for가 시작될때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 변수 num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6+7+8+9+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 10 덧셈 계산 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intSum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5+7+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( I + 1)</t>
   </si>
 </sst>
 </file>
@@ -144,6 +242,125 @@
         <a:xfrm>
           <a:off x="1" y="0"/>
           <a:ext cx="4105274" cy="1457324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4124066" cy="1714500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4124066" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4105274" cy="1934041"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4105274" cy="1934041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4429125" cy="1902882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -556,4 +773,430 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/for 반복문 풀이_1.xlsx
+++ b/for 반복문 풀이_1.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intSum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +135,10 @@
   </si>
   <si>
     <t>( I + 1)</t>
+  </si>
+  <si>
+    <t>변수 i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1076,7 +1077,7 @@
   <dimension ref="H1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1087,26 +1088,22 @@
   <sheetData>
     <row r="1" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H3" s="1">
@@ -1130,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
@@ -1144,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1">
         <v>9</v>
@@ -1158,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1">
         <v>16</v>
@@ -1172,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1">
         <v>25</v>
@@ -1197,6 +1194,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/for 반복문 풀이_1.xlsx
+++ b/for 반복문 풀이_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,38 @@
   </si>
   <si>
     <t>변수 i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 / 2 했을 때 정수값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x / 2했을때 남은값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x % 2 == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -1201,15 +1233,231 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/for 반복문 풀이_1.xlsx
+++ b/for 반복문 풀이_1.xlsx
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
